--- a/public/data/yield_loss/yield_table_democratic_republic_of_the_congo.xlsx
+++ b/public/data/yield_loss/yield_table_democratic_republic_of_the_congo.xlsx
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>24.94</v>
       </c>
       <c r="G4" t="n">
         <v>4.15</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>232.2</v>
+        <v>221.23</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0.13</v>
       </c>
       <c r="L6" t="n">
-        <v>1208.17</v>
+        <v>1207.83</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.77</v>
+        <v>23.76</v>
       </c>
       <c r="G11" t="n">
         <v>0.03</v>
@@ -3153,7 +3153,7 @@
         <v>1.67</v>
       </c>
       <c r="L17" t="n">
-        <v>64.65</v>
+        <v>64.58</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.19</v>
+        <v>6.1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
       <c r="G18" t="n">
         <v>19.22</v>
@@ -3230,10 +3230,10 @@
         <v>0.37</v>
       </c>
       <c r="K18" t="n">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="L18" t="n">
-        <v>176.33</v>
+        <v>174.72</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0.14</v>
       </c>
       <c r="U18" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="V18" t="n">
         <v>0.05</v>
@@ -3455,7 +3455,7 @@
         <v>0.52</v>
       </c>
       <c r="F21" t="n">
-        <v>248.3</v>
+        <v>236.43</v>
       </c>
       <c r="G21" t="n">
         <v>956.01</v>
@@ -3470,43 +3470,43 @@
         <v>2.57</v>
       </c>
       <c r="K21" t="n">
-        <v>27.69</v>
+        <v>27.65</v>
       </c>
       <c r="L21" t="n">
-        <v>4428.2</v>
+        <v>3948.65</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2827.69</v>
+        <v>2818.85</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>106.34</v>
+        <v>106.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.51</v>
+        <v>33.32</v>
       </c>
       <c r="R21" t="n">
         <v>1.56</v>
       </c>
       <c r="S21" t="n">
-        <v>5.48</v>
+        <v>5.42</v>
       </c>
       <c r="T21" t="n">
-        <v>31.54</v>
+        <v>31.4</v>
       </c>
       <c r="U21" t="n">
-        <v>33.8</v>
+        <v>28.35</v>
       </c>
       <c r="V21" t="n">
         <v>20.59</v>
       </c>
       <c r="W21" t="n">
-        <v>309.65</v>
+        <v>309.61</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0.33</v>
       </c>
       <c r="Z21" t="n">
-        <v>80.42</v>
+        <v>80.09</v>
       </c>
     </row>
     <row r="22">
@@ -3532,10 +3532,10 @@
         <v>0.42</v>
       </c>
       <c r="E22" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F22" t="n">
-        <v>285.72</v>
+        <v>283.88</v>
       </c>
       <c r="G22" t="n">
         <v>427.89</v>
@@ -3550,16 +3550,16 @@
         <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>42.47</v>
+        <v>44.38</v>
       </c>
       <c r="L22" t="n">
-        <v>2427.33</v>
+        <v>2340.28</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1710</v>
+        <v>1723.75</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>98.02</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.04</v>
+        <v>15.5</v>
       </c>
       <c r="R22" t="n">
         <v>1.87</v>
@@ -3577,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>15.17</v>
+        <v>14.75</v>
       </c>
       <c r="U22" t="n">
-        <v>15.32</v>
+        <v>14.32</v>
       </c>
       <c r="V22" t="n">
         <v>1.48</v>
       </c>
       <c r="W22" t="n">
-        <v>218.27</v>
+        <v>223.64</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>0.71</v>
       </c>
       <c r="Z22" t="n">
-        <v>44.12</v>
+        <v>42.85</v>
       </c>
     </row>
     <row r="23">
@@ -3615,7 +3615,7 @@
         <v>0.51</v>
       </c>
       <c r="F23" t="n">
-        <v>105.65</v>
+        <v>100.87</v>
       </c>
       <c r="G23" t="n">
         <v>1611.73</v>
@@ -3630,43 +3630,43 @@
         <v>1.73</v>
       </c>
       <c r="K23" t="n">
-        <v>25.63</v>
+        <v>26.26</v>
       </c>
       <c r="L23" t="n">
-        <v>4337.68</v>
+        <v>4066.61</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2882.69</v>
+        <v>2839.93</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>79.23</v>
+        <v>77.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>28.9</v>
+        <v>28.76</v>
       </c>
       <c r="R23" t="n">
         <v>0.07</v>
       </c>
       <c r="S23" t="n">
-        <v>5.08</v>
+        <v>5.04</v>
       </c>
       <c r="T23" t="n">
-        <v>27.46</v>
+        <v>26.84</v>
       </c>
       <c r="U23" t="n">
-        <v>25</v>
+        <v>25.17</v>
       </c>
       <c r="V23" t="n">
         <v>28.04</v>
       </c>
       <c r="W23" t="n">
-        <v>354.25</v>
+        <v>354.11</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0.47</v>
       </c>
       <c r="Z23" t="n">
-        <v>75.24</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="24">
@@ -3855,7 +3855,7 @@
         <v>0.26</v>
       </c>
       <c r="F26" t="n">
-        <v>46.56</v>
+        <v>45.98</v>
       </c>
       <c r="G26" t="n">
         <v>753.2</v>
@@ -3870,22 +3870,22 @@
         <v>0.86</v>
       </c>
       <c r="K26" t="n">
-        <v>10.17</v>
+        <v>10.59</v>
       </c>
       <c r="L26" t="n">
-        <v>1808.99</v>
+        <v>1807.59</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>928.46</v>
+        <v>910.49</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>23.04</v>
+        <v>22.91</v>
       </c>
       <c r="Q26" t="n">
         <v>5.8</v>
@@ -3897,16 +3897,16 @@
         <v>0.08</v>
       </c>
       <c r="T26" t="n">
-        <v>5.47</v>
+        <v>5.33</v>
       </c>
       <c r="U26" t="n">
-        <v>3.78</v>
+        <v>4.01</v>
       </c>
       <c r="V26" t="n">
         <v>0.75</v>
       </c>
       <c r="W26" t="n">
-        <v>33.49</v>
+        <v>33.41</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0.19</v>
       </c>
       <c r="Z26" t="n">
-        <v>23.39</v>
+        <v>22.71</v>
       </c>
     </row>
     <row r="27">
@@ -3932,10 +3932,10 @@
         <v>0.44</v>
       </c>
       <c r="E27" t="n">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="F27" t="n">
-        <v>262.02</v>
+        <v>140.31</v>
       </c>
       <c r="G27" t="n">
         <v>1905.9</v>
@@ -3950,25 +3950,25 @@
         <v>2.28</v>
       </c>
       <c r="K27" t="n">
-        <v>53.39</v>
+        <v>33.35</v>
       </c>
       <c r="L27" t="n">
-        <v>3971.9</v>
+        <v>1614.97</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>2003.14</v>
+        <v>1835.45</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>68.75</v>
+        <v>64.57</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.77</v>
+        <v>13.46</v>
       </c>
       <c r="R27" t="n">
         <v>2.12</v>
@@ -3977,16 +3977,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>14.94</v>
+        <v>13.71</v>
       </c>
       <c r="U27" t="n">
-        <v>30.65</v>
+        <v>17.93</v>
       </c>
       <c r="V27" t="n">
         <v>4.78</v>
       </c>
       <c r="W27" t="n">
-        <v>264.96</v>
+        <v>262.87</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0.71</v>
       </c>
       <c r="Z27" t="n">
-        <v>34.62</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="28">
@@ -4015,7 +4015,7 @@
         <v>0.39</v>
       </c>
       <c r="F28" t="n">
-        <v>552.55</v>
+        <v>451.24</v>
       </c>
       <c r="G28" t="n">
         <v>2404.52</v>
@@ -4030,22 +4030,22 @@
         <v>4.85</v>
       </c>
       <c r="K28" t="n">
-        <v>126.54</v>
+        <v>107.4</v>
       </c>
       <c r="L28" t="n">
-        <v>7123.33</v>
+        <v>4607.52</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>3672.39</v>
+        <v>3649.45</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>157.86</v>
+        <v>157.33</v>
       </c>
       <c r="Q28" t="n">
         <v>5.15</v>
@@ -4057,16 +4057,16 @@
         <v>3.81</v>
       </c>
       <c r="T28" t="n">
-        <v>21.43</v>
+        <v>21.3</v>
       </c>
       <c r="U28" t="n">
-        <v>44.43</v>
+        <v>28.68</v>
       </c>
       <c r="V28" t="n">
         <v>5.88</v>
       </c>
       <c r="W28" t="n">
-        <v>397.78</v>
+        <v>397.65</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>1.07</v>
       </c>
       <c r="Z28" t="n">
-        <v>31.8</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="29">
@@ -4095,7 +4095,7 @@
         <v>0.72</v>
       </c>
       <c r="F29" t="n">
-        <v>75.31</v>
+        <v>71.13</v>
       </c>
       <c r="G29" t="n">
         <v>681.46</v>
@@ -4110,25 +4110,25 @@
         <v>1.82</v>
       </c>
       <c r="K29" t="n">
-        <v>17.74</v>
+        <v>18.58</v>
       </c>
       <c r="L29" t="n">
-        <v>3327.56</v>
+        <v>3073.52</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3824.33</v>
+        <v>3812.84</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>59.34</v>
+        <v>59.09</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.24</v>
+        <v>38.13</v>
       </c>
       <c r="R29" t="n">
         <v>0.01</v>
@@ -4137,16 +4137,16 @@
         <v>6.25</v>
       </c>
       <c r="T29" t="n">
-        <v>97.78</v>
+        <v>97.71</v>
       </c>
       <c r="U29" t="n">
-        <v>99.96</v>
+        <v>97.1</v>
       </c>
       <c r="V29" t="n">
         <v>6939.11</v>
       </c>
       <c r="W29" t="n">
-        <v>1493.85</v>
+        <v>1493.78</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>2.25</v>
       </c>
       <c r="Z29" t="n">
-        <v>45.01</v>
+        <v>44.78</v>
       </c>
     </row>
     <row r="30">
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>451.72</v>
+        <v>431.65</v>
       </c>
       <c r="G30" t="n">
         <v>1487.3</v>
@@ -4190,16 +4190,16 @@
         <v>5.14</v>
       </c>
       <c r="K30" t="n">
-        <v>100.78</v>
+        <v>98.99</v>
       </c>
       <c r="L30" t="n">
-        <v>9816.86</v>
+        <v>9318.43</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>4799.33</v>
+        <v>4799.26</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -4220,7 +4220,7 @@
         <v>31.04</v>
       </c>
       <c r="U30" t="n">
-        <v>22.56</v>
+        <v>22.17</v>
       </c>
       <c r="V30" t="n">
         <v>2.81</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2122.67</v>
+        <v>1687.33</v>
       </c>
       <c r="G31" t="n">
         <v>6791.32</v>
@@ -4270,22 +4270,22 @@
         <v>28.99</v>
       </c>
       <c r="K31" t="n">
-        <v>1264.26</v>
+        <v>1120.26</v>
       </c>
       <c r="L31" t="n">
-        <v>24496.59</v>
+        <v>18421.11</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>14503</v>
+        <v>14500.34</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>469.41</v>
+        <v>469.33</v>
       </c>
       <c r="Q31" t="n">
         <v>1.87</v>
@@ -4297,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>55.83</v>
+        <v>55.82</v>
       </c>
       <c r="U31" t="n">
-        <v>103.56</v>
+        <v>85.61</v>
       </c>
       <c r="V31" t="n">
         <v>48.48</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5119.37</v>
+        <v>1572.92</v>
       </c>
       <c r="G32" t="n">
         <v>41382.03</v>
@@ -4350,22 +4350,22 @@
         <v>59.34</v>
       </c>
       <c r="K32" t="n">
-        <v>1330.44</v>
+        <v>533.11</v>
       </c>
       <c r="L32" t="n">
-        <v>70261.47</v>
+        <v>24036.69</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>32377.54</v>
+        <v>29664.55</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>976.32</v>
+        <v>884.96</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -4377,16 +4377,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>102.27</v>
+        <v>92.62</v>
       </c>
       <c r="U32" t="n">
-        <v>374.17</v>
+        <v>160.36</v>
       </c>
       <c r="V32" t="n">
         <v>161.24</v>
       </c>
       <c r="W32" t="n">
-        <v>2607.81</v>
+        <v>2600.66</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -4415,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>9.41</v>
+        <v>12.36</v>
       </c>
       <c r="G33" t="n">
         <v>248.86</v>
@@ -4430,22 +4430,22 @@
         <v>0.44</v>
       </c>
       <c r="K33" t="n">
-        <v>2.01</v>
+        <v>3.29</v>
       </c>
       <c r="L33" t="n">
-        <v>65.17</v>
+        <v>85.65</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>135.09</v>
+        <v>132.18</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>5.21</v>
+        <v>5.1</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -4460,7 +4460,7 @@
         <v>0.21</v>
       </c>
       <c r="U33" t="n">
-        <v>0.26</v>
+        <v>0.43</v>
       </c>
       <c r="V33" t="n">
         <v>0.94</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9784.55</v>
+        <v>2300.46</v>
       </c>
       <c r="G34" t="n">
         <v>37513.37</v>
@@ -4510,25 +4510,25 @@
         <v>86.05</v>
       </c>
       <c r="K34" t="n">
-        <v>7741.68</v>
+        <v>2775.86</v>
       </c>
       <c r="L34" t="n">
-        <v>80323.88</v>
+        <v>16872.29</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>31554.07</v>
+        <v>31157.53</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>721.94</v>
+        <v>702.95</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="R34" t="n">
         <v>200.02</v>
@@ -4537,16 +4537,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>83.39</v>
+        <v>80.2</v>
       </c>
       <c r="U34" t="n">
-        <v>651.03</v>
+        <v>189.46</v>
       </c>
       <c r="V34" t="n">
         <v>310.46</v>
       </c>
       <c r="W34" t="n">
-        <v>1727.98</v>
+        <v>1726.79</v>
       </c>
       <c r="X34" t="n">
         <v>1.06</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>400.28</v>
+        <v>363.52</v>
       </c>
       <c r="G35" t="n">
         <v>604.79</v>
@@ -4590,10 +4590,10 @@
         <v>2.15</v>
       </c>
       <c r="K35" t="n">
-        <v>65.91</v>
+        <v>61.42</v>
       </c>
       <c r="L35" t="n">
-        <v>11426.71</v>
+        <v>10389.49</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -4605,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>299.19</v>
+        <v>298.94</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -4617,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>52.56</v>
+        <v>52.49</v>
       </c>
       <c r="U35" t="n">
-        <v>37.92</v>
+        <v>29.49</v>
       </c>
       <c r="V35" t="n">
         <v>0.79</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>537.65</v>
+        <v>151.29</v>
       </c>
       <c r="G36" t="n">
         <v>614.31</v>
@@ -4670,10 +4670,10 @@
         <v>6.03</v>
       </c>
       <c r="K36" t="n">
-        <v>1.31</v>
+        <v>0.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.14</v>
+        <v>362.46</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -4700,7 +4700,7 @@
         <v>2.74</v>
       </c>
       <c r="U36" t="n">
-        <v>9.37</v>
+        <v>3.6</v>
       </c>
       <c r="V36" t="n">
         <v>5.03</v>
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>536.03</v>
+        <v>480.89</v>
       </c>
       <c r="G37" t="n">
         <v>280.93</v>
@@ -4750,22 +4750,22 @@
         <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>15.08</v>
+        <v>15.06</v>
       </c>
       <c r="L37" t="n">
-        <v>1308.52</v>
+        <v>1194.86</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>365.08</v>
+        <v>365.06</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>210.2</v>
+        <v>210.18</v>
       </c>
       <c r="Q37" t="n">
         <v>0.03</v>
@@ -4777,10 +4777,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>731.05</v>
+        <v>731.04</v>
       </c>
       <c r="U37" t="n">
-        <v>4.76</v>
+        <v>4.59</v>
       </c>
       <c r="V37" t="n">
         <v>1.42</v>
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>3.95</v>
+        <v>3.91</v>
       </c>
       <c r="G38" t="n">
         <v>1.86</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>10.62</v>
+        <v>10.49</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4895,13 +4895,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>6243.83</v>
+        <v>3764.07</v>
       </c>
       <c r="G39" t="n">
         <v>8599.34</v>
       </c>
       <c r="H39" t="n">
-        <v>336.05</v>
+        <v>261.17</v>
       </c>
       <c r="I39" t="n">
         <v>3.52</v>
@@ -4910,22 +4910,22 @@
         <v>91.24</v>
       </c>
       <c r="K39" t="n">
-        <v>87.02</v>
+        <v>71.73</v>
       </c>
       <c r="L39" t="n">
-        <v>14162.63</v>
+        <v>8433.74</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>4383.26</v>
+        <v>4383.09</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>947.21</v>
+        <v>947.15</v>
       </c>
       <c r="Q39" t="n">
         <v>698.58</v>
@@ -4940,7 +4940,7 @@
         <v>491.04</v>
       </c>
       <c r="U39" t="n">
-        <v>102.66</v>
+        <v>71.28</v>
       </c>
       <c r="V39" t="n">
         <v>63.76</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.99</v>
+        <v>2.96</v>
       </c>
       <c r="G40" t="n">
         <v>5.3</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>12.39</v>
+        <v>11.56</v>
       </c>
       <c r="G41" t="n">
         <v>2.35</v>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>19.71</v>
+        <v>19.07</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>54.11</v>
+        <v>53.98</v>
       </c>
       <c r="G42" t="n">
         <v>8.16</v>
@@ -5153,7 +5153,7 @@
         <v>0.05</v>
       </c>
       <c r="L42" t="n">
-        <v>65.22</v>
+        <v>65.11</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>230.32</v>
+        <v>230.34</v>
       </c>
       <c r="G45" t="n">
         <v>128.13</v>
@@ -5390,10 +5390,10 @@
         <v>3.64</v>
       </c>
       <c r="K45" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="L45" t="n">
-        <v>453.15</v>
+        <v>452.61</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>3.36</v>
       </c>
       <c r="U45" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="V45" t="n">
         <v>1.59</v>
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>34.52</v>
+        <v>36.54</v>
       </c>
       <c r="G46" t="n">
         <v>33.94</v>
@@ -5470,10 +5470,10 @@
         <v>0.85</v>
       </c>
       <c r="K46" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="L46" t="n">
-        <v>57.18</v>
+        <v>60.49</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         <v>0.16</v>
       </c>
       <c r="U46" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="V46" t="n">
         <v>0.62</v>
@@ -5615,13 +5615,13 @@
         <v>0.15</v>
       </c>
       <c r="F48" t="n">
-        <v>8686.9</v>
+        <v>8092.99</v>
       </c>
       <c r="G48" t="n">
         <v>10940.11</v>
       </c>
       <c r="H48" t="n">
-        <v>86.83</v>
+        <v>77.63</v>
       </c>
       <c r="I48" t="n">
         <v>4.94</v>
@@ -5630,10 +5630,10 @@
         <v>137.28</v>
       </c>
       <c r="K48" t="n">
-        <v>144.63</v>
+        <v>141.77</v>
       </c>
       <c r="L48" t="n">
-        <v>16432.29</v>
+        <v>15314.42</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -5642,7 +5642,7 @@
         <v>8429.98</v>
       </c>
       <c r="O48" t="n">
-        <v>95.77</v>
+        <v>95.81</v>
       </c>
       <c r="P48" t="n">
         <v>1266.04</v>
@@ -5660,7 +5660,7 @@
         <v>441.16</v>
       </c>
       <c r="U48" t="n">
-        <v>119.02</v>
+        <v>116.45</v>
       </c>
       <c r="V48" t="n">
         <v>82.87</v>
@@ -6095,13 +6095,13 @@
         <v>0.3</v>
       </c>
       <c r="F54" t="n">
-        <v>1184.64</v>
+        <v>1175.83</v>
       </c>
       <c r="G54" t="n">
         <v>276.28</v>
       </c>
       <c r="H54" t="n">
-        <v>61.93</v>
+        <v>63.39</v>
       </c>
       <c r="I54" t="n">
         <v>0.15</v>
@@ -6110,10 +6110,10 @@
         <v>10.17</v>
       </c>
       <c r="K54" t="n">
-        <v>2.05</v>
+        <v>2.09</v>
       </c>
       <c r="L54" t="n">
-        <v>667.69</v>
+        <v>656.93</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>767.17</v>
       </c>
       <c r="O54" t="n">
-        <v>7.04</v>
+        <v>7.21</v>
       </c>
       <c r="P54" t="n">
         <v>51.47</v>
@@ -6140,7 +6140,7 @@
         <v>21.13</v>
       </c>
       <c r="U54" t="n">
-        <v>8.28</v>
+        <v>8.51</v>
       </c>
       <c r="V54" t="n">
         <v>18.61</v>
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="G59" t="n">
         <v>741.89</v>
@@ -6510,16 +6510,16 @@
         <v>15.94</v>
       </c>
       <c r="K59" t="n">
-        <v>868.29</v>
+        <v>864.56</v>
       </c>
       <c r="L59" t="n">
-        <v>5623.59</v>
+        <v>5472.81</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>6395.36</v>
+        <v>6395.17</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -6540,7 +6540,7 @@
         <v>17.13</v>
       </c>
       <c r="U59" t="n">
-        <v>672.2</v>
+        <v>666.84</v>
       </c>
       <c r="V59" t="n">
         <v>4.93</v>
@@ -6655,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>39.51</v>
+        <v>15.99</v>
       </c>
       <c r="G61" t="n">
         <v>4310.34</v>
@@ -6670,22 +6670,22 @@
         <v>45.44</v>
       </c>
       <c r="K61" t="n">
-        <v>2979.43</v>
+        <v>2625.84</v>
       </c>
       <c r="L61" t="n">
-        <v>20251.82</v>
+        <v>15679.48</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>16321.64</v>
+        <v>16012.83</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>321.96</v>
+        <v>296.07</v>
       </c>
       <c r="Q61" t="n">
         <v>10.03</v>
@@ -6697,16 +6697,16 @@
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>140.11</v>
+        <v>132.47</v>
       </c>
       <c r="U61" t="n">
-        <v>5682.02</v>
+        <v>4607.18</v>
       </c>
       <c r="V61" t="n">
         <v>28.89</v>
       </c>
       <c r="W61" t="n">
-        <v>2043.25</v>
+        <v>2041.8</v>
       </c>
       <c r="X61" t="n">
         <v>0.74</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="G62" t="n">
         <v>730.33</v>
@@ -6750,10 +6750,10 @@
         <v>11.94</v>
       </c>
       <c r="K62" t="n">
-        <v>698.81</v>
+        <v>626.94</v>
       </c>
       <c r="L62" t="n">
-        <v>3311.34</v>
+        <v>2721.65</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>11.52</v>
       </c>
       <c r="U62" t="n">
-        <v>649.6</v>
+        <v>557.29</v>
       </c>
       <c r="V62" t="n">
         <v>6.93</v>
@@ -6830,10 +6830,10 @@
         <v>0.27</v>
       </c>
       <c r="K63" t="n">
-        <v>16.91</v>
+        <v>16.79</v>
       </c>
       <c r="L63" t="n">
-        <v>68.77</v>
+        <v>67.77</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -6860,7 +6860,7 @@
         <v>0.18</v>
       </c>
       <c r="U63" t="n">
-        <v>6.23</v>
+        <v>6.19</v>
       </c>
       <c r="V63" t="n">
         <v>0.09</v>
@@ -6910,10 +6910,10 @@
         <v>1.89</v>
       </c>
       <c r="K64" t="n">
-        <v>314.58</v>
+        <v>314.37</v>
       </c>
       <c r="L64" t="n">
-        <v>2179.48</v>
+        <v>2177.77</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -6940,7 +6940,7 @@
         <v>5.82</v>
       </c>
       <c r="U64" t="n">
-        <v>262.22</v>
+        <v>262.13</v>
       </c>
       <c r="V64" t="n">
         <v>0.21</v>
@@ -6993,7 +6993,7 @@
         <v>27.97</v>
       </c>
       <c r="L65" t="n">
-        <v>128.51</v>
+        <v>128.45</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>3.16</v>
+        <v>2.97</v>
       </c>
       <c r="G66" t="n">
         <v>665.46</v>
@@ -7070,10 +7070,10 @@
         <v>10.79</v>
       </c>
       <c r="K66" t="n">
-        <v>751.28</v>
+        <v>732.04</v>
       </c>
       <c r="L66" t="n">
-        <v>3788.05</v>
+        <v>3622.87</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>12.11</v>
       </c>
       <c r="U66" t="n">
-        <v>523.32</v>
+        <v>514.52</v>
       </c>
       <c r="V66" t="n">
         <v>6.15</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>103.65</v>
+        <v>72.16</v>
       </c>
       <c r="G67" t="n">
         <v>18942.76</v>
@@ -7150,25 +7150,25 @@
         <v>153.89</v>
       </c>
       <c r="K67" t="n">
-        <v>8988.48</v>
+        <v>6942.37</v>
       </c>
       <c r="L67" t="n">
-        <v>40516.23</v>
+        <v>24390.73</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>44378.12</v>
+        <v>43318.82</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>575.82</v>
+        <v>552.19</v>
       </c>
       <c r="Q67" t="n">
-        <v>40.8</v>
+        <v>39.87</v>
       </c>
       <c r="R67" t="n">
         <v>197.59</v>
@@ -7177,16 +7177,16 @@
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>145.25</v>
+        <v>140.27</v>
       </c>
       <c r="U67" t="n">
-        <v>7990.48</v>
+        <v>5222.19</v>
       </c>
       <c r="V67" t="n">
         <v>204.14</v>
       </c>
       <c r="W67" t="n">
-        <v>2241.69</v>
+        <v>2240.96</v>
       </c>
       <c r="X67" t="n">
         <v>5.17</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>36.08</v>
+        <v>34.66</v>
       </c>
       <c r="G68" t="n">
         <v>847.3</v>
@@ -7230,10 +7230,10 @@
         <v>27.58</v>
       </c>
       <c r="K68" t="n">
-        <v>1409.21</v>
+        <v>1352.53</v>
       </c>
       <c r="L68" t="n">
-        <v>5222.08</v>
+        <v>4902.2</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -7260,7 +7260,7 @@
         <v>13.85</v>
       </c>
       <c r="U68" t="n">
-        <v>406.71</v>
+        <v>385.21</v>
       </c>
       <c r="V68" t="n">
         <v>10.76</v>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>6.09</v>
+        <v>5.06</v>
       </c>
       <c r="G69" t="n">
         <v>3005.91</v>
@@ -7310,16 +7310,16 @@
         <v>27.61</v>
       </c>
       <c r="K69" t="n">
-        <v>1482.44</v>
+        <v>1314.8</v>
       </c>
       <c r="L69" t="n">
-        <v>5958.2</v>
+        <v>4694.44</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>8129.78</v>
+        <v>8120.36</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -7328,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>10.63</v>
+        <v>10.62</v>
       </c>
       <c r="R69" t="n">
         <v>38.38</v>
@@ -7337,10 +7337,10 @@
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>14.58</v>
+        <v>14.56</v>
       </c>
       <c r="U69" t="n">
-        <v>723.42</v>
+        <v>614.47</v>
       </c>
       <c r="V69" t="n">
         <v>31.11</v>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="G70" t="n">
         <v>1648.44</v>
@@ -7390,25 +7390,25 @@
         <v>13.54</v>
       </c>
       <c r="K70" t="n">
-        <v>1609.37</v>
+        <v>1079.37</v>
       </c>
       <c r="L70" t="n">
-        <v>8888.12</v>
+        <v>5417.33</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>5926.36</v>
+        <v>5917.75</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>121.6</v>
+        <v>121.39</v>
       </c>
       <c r="Q70" t="n">
-        <v>5.07</v>
+        <v>5.06</v>
       </c>
       <c r="R70" t="n">
         <v>18.57</v>
@@ -7417,10 +7417,10 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>49.38</v>
+        <v>49.29</v>
       </c>
       <c r="U70" t="n">
-        <v>3895.06</v>
+        <v>2006.06</v>
       </c>
       <c r="V70" t="n">
         <v>13.74</v>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>61.72</v>
+        <v>20.92</v>
       </c>
       <c r="G71" t="n">
         <v>3796.39</v>
@@ -7470,22 +7470,22 @@
         <v>12.65</v>
       </c>
       <c r="K71" t="n">
-        <v>4205.1</v>
+        <v>1437</v>
       </c>
       <c r="L71" t="n">
-        <v>22915.4</v>
+        <v>5298.62</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>7885.43</v>
+        <v>7298.38</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>420.17</v>
+        <v>397.87</v>
       </c>
       <c r="Q71" t="n">
         <v>0.21</v>
@@ -7497,16 +7497,16 @@
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>106.41</v>
+        <v>101.23</v>
       </c>
       <c r="U71" t="n">
-        <v>9430.35</v>
+        <v>2773.06</v>
       </c>
       <c r="V71" t="n">
         <v>11.55</v>
       </c>
       <c r="W71" t="n">
-        <v>1295.75</v>
+        <v>1295.26</v>
       </c>
       <c r="X71" t="n">
         <v>0.56</v>
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="G72" t="n">
         <v>68.54</v>
@@ -7550,10 +7550,10 @@
         <v>1.94</v>
       </c>
       <c r="K72" t="n">
-        <v>91.44</v>
+        <v>90.54</v>
       </c>
       <c r="L72" t="n">
-        <v>308.24</v>
+        <v>297.92</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -7580,7 +7580,7 @@
         <v>0.73</v>
       </c>
       <c r="U72" t="n">
-        <v>24.54</v>
+        <v>24.3</v>
       </c>
       <c r="V72" t="n">
         <v>0.65</v>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>284.97</v>
+        <v>221.46</v>
       </c>
       <c r="G73" t="n">
         <v>3957</v>
@@ -7630,25 +7630,25 @@
         <v>73.27</v>
       </c>
       <c r="K73" t="n">
-        <v>3165.01</v>
+        <v>2669.28</v>
       </c>
       <c r="L73" t="n">
-        <v>8450.36</v>
+        <v>6513.51</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>11227.96</v>
+        <v>10879.46</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>115.18</v>
+        <v>109.22</v>
       </c>
       <c r="Q73" t="n">
-        <v>18.43</v>
+        <v>17.69</v>
       </c>
       <c r="R73" t="n">
         <v>90.01</v>
@@ -7657,16 +7657,16 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>28.87</v>
+        <v>27.98</v>
       </c>
       <c r="U73" t="n">
-        <v>391.55</v>
+        <v>338.9</v>
       </c>
       <c r="V73" t="n">
         <v>60.48</v>
       </c>
       <c r="W73" t="n">
-        <v>622.12</v>
+        <v>621.75</v>
       </c>
       <c r="X73" t="n">
         <v>1.72</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>256.16</v>
+        <v>239.03</v>
       </c>
       <c r="G74" t="n">
         <v>500.37</v>
@@ -7710,10 +7710,10 @@
         <v>47.94</v>
       </c>
       <c r="K74" t="n">
-        <v>2021.83</v>
+        <v>1932.83</v>
       </c>
       <c r="L74" t="n">
-        <v>4870.66</v>
+        <v>4526.96</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -7740,7 +7740,7 @@
         <v>14.5</v>
       </c>
       <c r="U74" t="n">
-        <v>51.74</v>
+        <v>49.09</v>
       </c>
       <c r="V74" t="n">
         <v>9.2</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>190.78</v>
+        <v>188.29</v>
       </c>
       <c r="G76" t="n">
         <v>296.78</v>
@@ -7870,10 +7870,10 @@
         <v>32.8</v>
       </c>
       <c r="K76" t="n">
-        <v>1743.03</v>
+        <v>1731.18</v>
       </c>
       <c r="L76" t="n">
-        <v>5513.03</v>
+        <v>5430.56</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -7900,7 +7900,7 @@
         <v>18.44</v>
       </c>
       <c r="U76" t="n">
-        <v>71.48</v>
+        <v>70.99</v>
       </c>
       <c r="V76" t="n">
         <v>4.38</v>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>16.89</v>
+        <v>16.84</v>
       </c>
       <c r="G77" t="n">
         <v>12.72</v>
@@ -7950,10 +7950,10 @@
         <v>2.26</v>
       </c>
       <c r="K77" t="n">
-        <v>135.65</v>
+        <v>135.52</v>
       </c>
       <c r="L77" t="n">
-        <v>542.13</v>
+        <v>540.61</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -8015,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>425.02</v>
+        <v>283.84</v>
       </c>
       <c r="G78" t="n">
         <v>6403.29</v>
@@ -8030,25 +8030,25 @@
         <v>105.89</v>
       </c>
       <c r="K78" t="n">
-        <v>5047.6</v>
+        <v>3812.4</v>
       </c>
       <c r="L78" t="n">
-        <v>12703.93</v>
+        <v>8395.01</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>15673.29</v>
+        <v>15259.43</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>230.29</v>
+        <v>223.24</v>
       </c>
       <c r="Q78" t="n">
-        <v>21.07</v>
+        <v>20.24</v>
       </c>
       <c r="R78" t="n">
         <v>127.21</v>
@@ -8057,16 +8057,16 @@
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>38.33</v>
+        <v>37.27</v>
       </c>
       <c r="U78" t="n">
-        <v>251.88</v>
+        <v>185.13</v>
       </c>
       <c r="V78" t="n">
         <v>98.84</v>
       </c>
       <c r="W78" t="n">
-        <v>687.98</v>
+        <v>687.66</v>
       </c>
       <c r="X78" t="n">
         <v>2.74</v>
@@ -8095,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>9.02</v>
+        <v>8.68</v>
       </c>
       <c r="G79" t="n">
         <v>27.52</v>
@@ -8110,10 +8110,10 @@
         <v>1.99</v>
       </c>
       <c r="K79" t="n">
-        <v>78.97</v>
+        <v>77.34</v>
       </c>
       <c r="L79" t="n">
-        <v>198.93</v>
+        <v>191.37</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>0.63</v>
       </c>
       <c r="U79" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="V79" t="n">
         <v>0.49</v>
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>322.69</v>
+        <v>308.94</v>
       </c>
       <c r="G80" t="n">
         <v>1345.74</v>
@@ -8190,25 +8190,25 @@
         <v>57.96</v>
       </c>
       <c r="K80" t="n">
-        <v>3018.95</v>
+        <v>2985.3</v>
       </c>
       <c r="L80" t="n">
-        <v>7603.29</v>
+        <v>7145.4</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>9722.65</v>
+        <v>9712.18</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>339.88</v>
+        <v>339.38</v>
       </c>
       <c r="Q80" t="n">
-        <v>12.79</v>
+        <v>12.77</v>
       </c>
       <c r="R80" t="n">
         <v>64.42</v>
@@ -8217,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>25.03</v>
+        <v>25</v>
       </c>
       <c r="U80" t="n">
-        <v>91.99</v>
+        <v>90.46</v>
       </c>
       <c r="V80" t="n">
         <v>28.98</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>5.02</v>
+        <v>4.92</v>
       </c>
       <c r="G81" t="n">
         <v>9.71</v>
@@ -8270,10 +8270,10 @@
         <v>0.61</v>
       </c>
       <c r="K81" t="n">
-        <v>32.65</v>
+        <v>32.07</v>
       </c>
       <c r="L81" t="n">
-        <v>94.92</v>
+        <v>93</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0.36</v>
       </c>
       <c r="U81" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="V81" t="n">
         <v>0.21</v>
@@ -8329,70 +8329,70 @@
         <v>171</v>
       </c>
       <c r="D82" t="n">
-        <v>25.98</v>
+        <v>25.99</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>3460.98</v>
+        <v>1554.22</v>
       </c>
       <c r="G82" t="n">
-        <v>5598.09</v>
+        <v>5637.89</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>35.78</v>
+        <v>35.79</v>
       </c>
       <c r="J82" t="n">
-        <v>233.32</v>
+        <v>233.33</v>
       </c>
       <c r="K82" t="n">
-        <v>7464.78</v>
+        <v>3614.19</v>
       </c>
       <c r="L82" t="n">
-        <v>22065.96</v>
+        <v>8818.31</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>25682.67</v>
+        <v>20797.73</v>
       </c>
       <c r="O82" t="n">
-        <v>3524.66</v>
+        <v>1374.08</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.47</v>
+        <v>1.99</v>
       </c>
       <c r="R82" t="n">
-        <v>301.77</v>
+        <v>301.84</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>121.33</v>
+        <v>100.33</v>
       </c>
       <c r="U82" t="n">
-        <v>2768.63</v>
+        <v>1121.48</v>
       </c>
       <c r="V82" t="n">
-        <v>511.53</v>
+        <v>511.64</v>
       </c>
       <c r="W82" t="n">
-        <v>2689.18</v>
+        <v>2668.07</v>
       </c>
       <c r="X82" t="n">
         <v>9.31</v>
       </c>
       <c r="Y82" t="n">
-        <v>25.1</v>
+        <v>25.12</v>
       </c>
       <c r="Z82" t="n">
         <v>0</v>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>43.73</v>
+        <v>42.05</v>
       </c>
       <c r="G85" t="n">
         <v>41.4</v>
@@ -8590,10 +8590,10 @@
         <v>0.02</v>
       </c>
       <c r="K85" t="n">
-        <v>16.13</v>
+        <v>15.85</v>
       </c>
       <c r="L85" t="n">
-        <v>28.22</v>
+        <v>27.14</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>13.61</v>
       </c>
       <c r="O85" t="n">
-        <v>13.58</v>
+        <v>13.06</v>
       </c>
       <c r="P85" t="n">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>0.15</v>
       </c>
       <c r="U85" t="n">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="V85" t="n">
         <v>0.21</v>
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1964.93</v>
+        <v>1788.1</v>
       </c>
       <c r="G86" t="n">
         <v>2410.63</v>
@@ -8670,19 +8670,19 @@
         <v>1.45</v>
       </c>
       <c r="K86" t="n">
-        <v>924.52</v>
+        <v>942.22</v>
       </c>
       <c r="L86" t="n">
-        <v>1912.37</v>
+        <v>1763.82</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>1052.46</v>
+        <v>1010.8</v>
       </c>
       <c r="O86" t="n">
-        <v>571.95</v>
+        <v>520.05</v>
       </c>
       <c r="P86" t="n">
         <v>0</v>
@@ -8697,16 +8697,16 @@
         <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>20.17</v>
+        <v>17.8</v>
       </c>
       <c r="U86" t="n">
-        <v>252.09</v>
+        <v>270</v>
       </c>
       <c r="V86" t="n">
         <v>36.12</v>
       </c>
       <c r="W86" t="n">
-        <v>259.61</v>
+        <v>259.33</v>
       </c>
       <c r="X86" t="n">
         <v>0.22</v>
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>37.24</v>
+        <v>35.92</v>
       </c>
       <c r="G87" t="n">
         <v>19.62</v>
@@ -8750,10 +8750,10 @@
         <v>0.01</v>
       </c>
       <c r="K87" t="n">
-        <v>19.17</v>
+        <v>18.75</v>
       </c>
       <c r="L87" t="n">
-        <v>26.55</v>
+        <v>25.61</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -8762,7 +8762,7 @@
         <v>11.68</v>
       </c>
       <c r="O87" t="n">
-        <v>12.17</v>
+        <v>11.74</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0.28</v>
       </c>
       <c r="U87" t="n">
-        <v>4.92</v>
+        <v>4.81</v>
       </c>
       <c r="V87" t="n">
         <v>0.05</v>
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>3884.19</v>
+        <v>828.29</v>
       </c>
       <c r="G88" t="n">
         <v>3613.34</v>
@@ -8830,25 +8830,25 @@
         <v>0.13</v>
       </c>
       <c r="K88" t="n">
-        <v>2527.64</v>
+        <v>704.66</v>
       </c>
       <c r="L88" t="n">
-        <v>6059.3</v>
+        <v>1426.68</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>634.89</v>
+        <v>573.72</v>
       </c>
       <c r="O88" t="n">
-        <v>1154.5</v>
+        <v>254.21</v>
       </c>
       <c r="P88" t="n">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="R88" t="n">
         <v>0.95</v>
@@ -8857,16 +8857,16 @@
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>23.58</v>
+        <v>21.49</v>
       </c>
       <c r="U88" t="n">
-        <v>923.73</v>
+        <v>262.32</v>
       </c>
       <c r="V88" t="n">
         <v>0.68</v>
       </c>
       <c r="W88" t="n">
-        <v>553.24</v>
+        <v>553.1</v>
       </c>
       <c r="X88" t="n">
         <v>0.07</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>728.74</v>
+        <v>717.22</v>
       </c>
       <c r="G89" t="n">
         <v>289.05</v>
@@ -8910,10 +8910,10 @@
         <v>0.05</v>
       </c>
       <c r="K89" t="n">
-        <v>151.3</v>
+        <v>150.2</v>
       </c>
       <c r="L89" t="n">
-        <v>1024.69</v>
+        <v>1012.93</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -8922,7 +8922,7 @@
         <v>112.5</v>
       </c>
       <c r="O89" t="n">
-        <v>195.36</v>
+        <v>192.12</v>
       </c>
       <c r="P89" t="n">
         <v>14.31</v>
@@ -8940,7 +8940,7 @@
         <v>3.34</v>
       </c>
       <c r="U89" t="n">
-        <v>38.77</v>
+        <v>38.4</v>
       </c>
       <c r="V89" t="n">
         <v>0.55</v>
@@ -9055,7 +9055,7 @@
         <v>0.82</v>
       </c>
       <c r="F91" t="n">
-        <v>1308.4</v>
+        <v>1293.17</v>
       </c>
       <c r="G91" t="n">
         <v>216.79</v>
@@ -9070,10 +9070,10 @@
         <v>0.33</v>
       </c>
       <c r="K91" t="n">
-        <v>423.48</v>
+        <v>421.85</v>
       </c>
       <c r="L91" t="n">
-        <v>1401.34</v>
+        <v>1360.18</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>424.12</v>
       </c>
       <c r="O91" t="n">
-        <v>415.32</v>
+        <v>412.56</v>
       </c>
       <c r="P91" t="n">
         <v>1.45</v>
@@ -9100,7 +9100,7 @@
         <v>4.05</v>
       </c>
       <c r="U91" t="n">
-        <v>67.26</v>
+        <v>66.76</v>
       </c>
       <c r="V91" t="n">
         <v>68.54</v>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>6659.55</v>
+        <v>3651.17</v>
       </c>
       <c r="G92" t="n">
         <v>5662.93</v>
@@ -9150,25 +9150,25 @@
         <v>1.66</v>
       </c>
       <c r="K92" t="n">
-        <v>3687.37</v>
+        <v>2297.56</v>
       </c>
       <c r="L92" t="n">
-        <v>6135.82</v>
+        <v>3063.74</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>1256.54</v>
+        <v>1218.16</v>
       </c>
       <c r="O92" t="n">
-        <v>2265.87</v>
+        <v>1186.89</v>
       </c>
       <c r="P92" t="n">
         <v>0.03</v>
       </c>
       <c r="Q92" t="n">
-        <v>79.73</v>
+        <v>79.71</v>
       </c>
       <c r="R92" t="n">
         <v>7.47</v>
@@ -9177,16 +9177,16 @@
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>55.15</v>
+        <v>50.21</v>
       </c>
       <c r="U92" t="n">
-        <v>1244.14</v>
+        <v>682.26</v>
       </c>
       <c r="V92" t="n">
         <v>15.15</v>
       </c>
       <c r="W92" t="n">
-        <v>810.85</v>
+        <v>810.56</v>
       </c>
       <c r="X92" t="n">
         <v>0.38</v>
@@ -9195,7 +9195,7 @@
         <v>1.37</v>
       </c>
       <c r="Z92" t="n">
-        <v>18.12</v>
+        <v>17.85</v>
       </c>
     </row>
     <row r="93">
@@ -9295,7 +9295,7 @@
         <v>0.04</v>
       </c>
       <c r="F94" t="n">
-        <v>5164.8</v>
+        <v>3532.66</v>
       </c>
       <c r="G94" t="n">
         <v>3481.65</v>
@@ -9310,25 +9310,25 @@
         <v>0.69</v>
       </c>
       <c r="K94" t="n">
-        <v>1517.22</v>
+        <v>1316.49</v>
       </c>
       <c r="L94" t="n">
-        <v>5286.43</v>
+        <v>3255.73</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>1191.36</v>
+        <v>1180.42</v>
       </c>
       <c r="O94" t="n">
-        <v>1116.89</v>
+        <v>928.66</v>
       </c>
       <c r="P94" t="n">
         <v>10.4</v>
       </c>
       <c r="Q94" t="n">
-        <v>964.72</v>
+        <v>958.54</v>
       </c>
       <c r="R94" t="n">
         <v>6.03</v>
@@ -9340,7 +9340,7 @@
         <v>20.85</v>
       </c>
       <c r="U94" t="n">
-        <v>438.24</v>
+        <v>380.01</v>
       </c>
       <c r="V94" t="n">
         <v>37.37</v>
@@ -9375,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>16.39</v>
+        <v>16.37</v>
       </c>
       <c r="G95" t="n">
         <v>2.91</v>
@@ -9393,7 +9393,7 @@
         <v>6.15</v>
       </c>
       <c r="L95" t="n">
-        <v>16.17</v>
+        <v>16.15</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -9402,7 +9402,7 @@
         <v>4.41</v>
       </c>
       <c r="O95" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>861.22</v>
+        <v>850.85</v>
       </c>
       <c r="G96" t="n">
         <v>374.5</v>
@@ -9470,10 +9470,10 @@
         <v>0.11</v>
       </c>
       <c r="K96" t="n">
-        <v>210.35</v>
+        <v>210.64</v>
       </c>
       <c r="L96" t="n">
-        <v>1122.28</v>
+        <v>1111.84</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>167.48</v>
       </c>
       <c r="O96" t="n">
-        <v>241.26</v>
+        <v>238.37</v>
       </c>
       <c r="P96" t="n">
         <v>22.39</v>
@@ -9500,7 +9500,7 @@
         <v>3.26</v>
       </c>
       <c r="U96" t="n">
-        <v>33.4</v>
+        <v>33.32</v>
       </c>
       <c r="V96" t="n">
         <v>0.71</v>
@@ -9615,7 +9615,7 @@
         <v>0.93</v>
       </c>
       <c r="F98" t="n">
-        <v>1750.64</v>
+        <v>1742.23</v>
       </c>
       <c r="G98" t="n">
         <v>206.72</v>
@@ -9630,10 +9630,10 @@
         <v>0.7</v>
       </c>
       <c r="K98" t="n">
-        <v>538.14</v>
+        <v>537.02</v>
       </c>
       <c r="L98" t="n">
-        <v>1134.85</v>
+        <v>1129.7</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -9642,7 +9642,7 @@
         <v>551.82</v>
       </c>
       <c r="O98" t="n">
-        <v>667.63</v>
+        <v>664.42</v>
       </c>
       <c r="P98" t="n">
         <v>11.53</v>
@@ -9660,7 +9660,7 @@
         <v>4.82</v>
       </c>
       <c r="U98" t="n">
-        <v>78.13</v>
+        <v>78.02</v>
       </c>
       <c r="V98" t="n">
         <v>0.84</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1428.97</v>
+        <v>1428.86</v>
       </c>
       <c r="G99" t="n">
         <v>1.64</v>
@@ -9710,10 +9710,10 @@
         <v>0.14</v>
       </c>
       <c r="K99" t="n">
-        <v>309.85</v>
+        <v>309.84</v>
       </c>
       <c r="L99" t="n">
-        <v>1613.59</v>
+        <v>1613.49</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>367.67</v>
       </c>
       <c r="O99" t="n">
-        <v>462.65</v>
+        <v>462.63</v>
       </c>
       <c r="P99" t="n">
         <v>14.51</v>
@@ -9775,7 +9775,7 @@
         <v>0.01</v>
       </c>
       <c r="F100" t="n">
-        <v>307.75</v>
+        <v>307.73</v>
       </c>
       <c r="G100" t="n">
         <v>1.33</v>
@@ -9793,7 +9793,7 @@
         <v>84.72</v>
       </c>
       <c r="L100" t="n">
-        <v>437.71</v>
+        <v>437.69</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>156.55</v>
       </c>
       <c r="K102" t="n">
-        <v>312.05</v>
+        <v>250.34</v>
       </c>
       <c r="L102" t="n">
-        <v>46145.87</v>
+        <v>30462.07</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>14177.58</v>
+        <v>14175.88</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>213.89</v>
+        <v>213.87</v>
       </c>
       <c r="Q102" t="n">
         <v>9.42</v>
@@ -9977,10 +9977,10 @@
         <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>61.55</v>
+        <v>61.54</v>
       </c>
       <c r="U102" t="n">
-        <v>175.99</v>
+        <v>135.49</v>
       </c>
       <c r="V102" t="n">
         <v>92.35</v>
@@ -10015,7 +10015,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>71.26</v>
+        <v>15.07</v>
       </c>
       <c r="G103" t="n">
         <v>4090.03</v>
@@ -10030,22 +10030,22 @@
         <v>14.98</v>
       </c>
       <c r="K103" t="n">
-        <v>37.63</v>
+        <v>27.6</v>
       </c>
       <c r="L103" t="n">
-        <v>11700.11</v>
+        <v>5356.7</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>2119.99</v>
+        <v>2116.96</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>116.84</v>
+        <v>116.62</v>
       </c>
       <c r="Q103" t="n">
         <v>0.15</v>
@@ -10057,10 +10057,10 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>27.2</v>
+        <v>27.14</v>
       </c>
       <c r="U103" t="n">
-        <v>75.82</v>
+        <v>38.1</v>
       </c>
       <c r="V103" t="n">
         <v>10.59</v>
@@ -10175,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>2077.85</v>
+        <v>1529.02</v>
       </c>
       <c r="G105" t="n">
         <v>20570.14</v>
@@ -10190,25 +10190,25 @@
         <v>72.1</v>
       </c>
       <c r="K105" t="n">
-        <v>72.81</v>
+        <v>61.31</v>
       </c>
       <c r="L105" t="n">
-        <v>46796.8</v>
+        <v>24251.83</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>7760.54</v>
+        <v>7645.12</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>925.55</v>
+        <v>908.03</v>
       </c>
       <c r="Q105" t="n">
-        <v>370.42</v>
+        <v>367.46</v>
       </c>
       <c r="R105" t="n">
         <v>29.52</v>
@@ -10217,16 +10217,16 @@
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>94.71</v>
+        <v>93.8</v>
       </c>
       <c r="U105" t="n">
-        <v>138.11</v>
+        <v>80.17</v>
       </c>
       <c r="V105" t="n">
         <v>15.82</v>
       </c>
       <c r="W105" t="n">
-        <v>3785.7</v>
+        <v>3784.38</v>
       </c>
       <c r="X105" t="n">
         <v>0.52</v>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>11.48</v>
+        <v>11.37</v>
       </c>
       <c r="G106" t="n">
         <v>41.89</v>
@@ -10273,7 +10273,7 @@
         <v>0.02</v>
       </c>
       <c r="L106" t="n">
-        <v>43.48</v>
+        <v>43.04</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -10335,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>479.97</v>
+        <v>92.73</v>
       </c>
       <c r="G107" t="n">
         <v>8463.43</v>
@@ -10350,25 +10350,25 @@
         <v>62.24</v>
       </c>
       <c r="K107" t="n">
-        <v>1374.59</v>
+        <v>386.37</v>
       </c>
       <c r="L107" t="n">
-        <v>23774.35</v>
+        <v>15136.22</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>10596.18</v>
+        <v>9576.51</v>
       </c>
       <c r="O107" t="n">
-        <v>604.92</v>
+        <v>105.51</v>
       </c>
       <c r="P107" t="n">
         <v>13.83</v>
       </c>
       <c r="Q107" t="n">
-        <v>18.29</v>
+        <v>17.72</v>
       </c>
       <c r="R107" t="n">
         <v>74.07</v>
@@ -10377,16 +10377,16 @@
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>47.5</v>
+        <v>42.5</v>
       </c>
       <c r="U107" t="n">
-        <v>363.24</v>
+        <v>129.47</v>
       </c>
       <c r="V107" t="n">
         <v>77.97</v>
       </c>
       <c r="W107" t="n">
-        <v>1471.47</v>
+        <v>1468.99</v>
       </c>
       <c r="X107" t="n">
         <v>1.99</v>
@@ -10430,10 +10430,10 @@
         <v>0.28</v>
       </c>
       <c r="K108" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="L108" t="n">
-        <v>59.58</v>
+        <v>56.66</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -10460,7 +10460,7 @@
         <v>0.1</v>
       </c>
       <c r="U108" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="V108" t="n">
         <v>0.09</v>
@@ -10495,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>854.9</v>
+        <v>428.91</v>
       </c>
       <c r="G109" t="n">
         <v>6494.42</v>
@@ -10510,25 +10510,25 @@
         <v>4.99</v>
       </c>
       <c r="K109" t="n">
-        <v>250.6</v>
+        <v>75.64</v>
       </c>
       <c r="L109" t="n">
-        <v>11037.26</v>
+        <v>5511.02</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>2215.83</v>
+        <v>2151.22</v>
       </c>
       <c r="O109" t="n">
-        <v>109.53</v>
+        <v>23.81</v>
       </c>
       <c r="P109" t="n">
         <v>22.15</v>
       </c>
       <c r="Q109" t="n">
-        <v>10.74</v>
+        <v>10.66</v>
       </c>
       <c r="R109" t="n">
         <v>12.75</v>
@@ -10537,16 +10537,16 @@
         <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>18.52</v>
+        <v>17.9</v>
       </c>
       <c r="U109" t="n">
-        <v>121.85</v>
+        <v>45.8</v>
       </c>
       <c r="V109" t="n">
         <v>2.32</v>
       </c>
       <c r="W109" t="n">
-        <v>1425.08</v>
+        <v>1424.85</v>
       </c>
       <c r="X109" t="n">
         <v>0.16</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>8.24</v>
+        <v>8.41</v>
       </c>
       <c r="G110" t="n">
         <v>1155.38</v>
@@ -10590,25 +10590,25 @@
         <v>9</v>
       </c>
       <c r="K110" t="n">
-        <v>64.05</v>
+        <v>68.35</v>
       </c>
       <c r="L110" t="n">
-        <v>5796.45</v>
+        <v>5651.32</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>1935.9</v>
+        <v>1930.47</v>
       </c>
       <c r="O110" t="n">
-        <v>14.54</v>
+        <v>14.82</v>
       </c>
       <c r="P110" t="n">
         <v>0</v>
       </c>
       <c r="Q110" t="n">
-        <v>5.09</v>
+        <v>5.08</v>
       </c>
       <c r="R110" t="n">
         <v>11.43</v>
@@ -10617,16 +10617,16 @@
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>7.02</v>
+        <v>7</v>
       </c>
       <c r="U110" t="n">
-        <v>22.57</v>
+        <v>23.93</v>
       </c>
       <c r="V110" t="n">
         <v>7.64</v>
       </c>
       <c r="W110" t="n">
-        <v>461.17</v>
+        <v>460.97</v>
       </c>
       <c r="X110" t="n">
         <v>0.3</v>
@@ -10750,10 +10750,10 @@
         <v>5.03</v>
       </c>
       <c r="K112" t="n">
-        <v>34.8</v>
+        <v>34.76</v>
       </c>
       <c r="L112" t="n">
-        <v>15556.27</v>
+        <v>15422.98</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>26.51</v>
       </c>
       <c r="U112" t="n">
-        <v>26.25</v>
+        <v>26.12</v>
       </c>
       <c r="V112" t="n">
         <v>0.48</v>
@@ -10990,10 +10990,10 @@
         <v>173.13</v>
       </c>
       <c r="K115" t="n">
-        <v>371.04</v>
+        <v>347.67</v>
       </c>
       <c r="L115" t="n">
-        <v>51443.76</v>
+        <v>44560.51</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -11020,7 +11020,7 @@
         <v>75.79</v>
       </c>
       <c r="U115" t="n">
-        <v>249.56</v>
+        <v>235.25</v>
       </c>
       <c r="V115" t="n">
         <v>73.55</v>
@@ -11070,10 +11070,10 @@
         <v>2.91</v>
       </c>
       <c r="K116" t="n">
-        <v>3.64</v>
+        <v>3.39</v>
       </c>
       <c r="L116" t="n">
-        <v>682.04</v>
+        <v>525.24</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -11100,7 +11100,7 @@
         <v>0.95</v>
       </c>
       <c r="U116" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="V116" t="n">
         <v>2.34</v>
@@ -11150,10 +11150,10 @@
         <v>97.87</v>
       </c>
       <c r="K117" t="n">
-        <v>209.75</v>
+        <v>207.83</v>
       </c>
       <c r="L117" t="n">
-        <v>37480.76</v>
+        <v>36502.65</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
@@ -11180,7 +11180,7 @@
         <v>52.35</v>
       </c>
       <c r="U117" t="n">
-        <v>108.21</v>
+        <v>107.21</v>
       </c>
       <c r="V117" t="n">
         <v>22.34</v>
@@ -11233,7 +11233,7 @@
         <v>0.83</v>
       </c>
       <c r="L118" t="n">
-        <v>188.73</v>
+        <v>188.44</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -11470,10 +11470,10 @@
         <v>12.56</v>
       </c>
       <c r="K121" t="n">
-        <v>40.86</v>
+        <v>40.61</v>
       </c>
       <c r="L121" t="n">
-        <v>15378.45</v>
+        <v>15075.56</v>
       </c>
       <c r="M121" t="n">
         <v>0</v>
@@ -11500,7 +11500,7 @@
         <v>24.78</v>
       </c>
       <c r="U121" t="n">
-        <v>31.7</v>
+        <v>31.43</v>
       </c>
       <c r="V121" t="n">
         <v>2.28</v>
@@ -11615,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>907.05</v>
+        <v>743.92</v>
       </c>
       <c r="G123" t="n">
         <v>2814.3</v>
@@ -11630,10 +11630,10 @@
         <v>122.49</v>
       </c>
       <c r="K123" t="n">
-        <v>6711.1</v>
+        <v>5932.14</v>
       </c>
       <c r="L123" t="n">
-        <v>20444.43</v>
+        <v>17301.5</v>
       </c>
       <c r="M123" t="n">
         <v>0</v>
@@ -11660,7 +11660,7 @@
         <v>56.46</v>
       </c>
       <c r="U123" t="n">
-        <v>228.66</v>
+        <v>205.9</v>
       </c>
       <c r="V123" t="n">
         <v>63.56</v>
@@ -11695,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>5.45</v>
+        <v>5.43</v>
       </c>
       <c r="G124" t="n">
         <v>5.46</v>
@@ -11710,10 +11710,10 @@
         <v>1.19</v>
       </c>
       <c r="K124" t="n">
-        <v>44.69</v>
+        <v>44.64</v>
       </c>
       <c r="L124" t="n">
-        <v>125.5</v>
+        <v>125.11</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>178.87</v>
+        <v>99.78</v>
       </c>
       <c r="G125" t="n">
         <v>5507.7</v>
@@ -11790,25 +11790,25 @@
         <v>45.09</v>
       </c>
       <c r="K125" t="n">
-        <v>4137.07</v>
+        <v>2807.74</v>
       </c>
       <c r="L125" t="n">
-        <v>12701.27</v>
+        <v>6975.34</v>
       </c>
       <c r="M125" t="n">
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>14570.25</v>
+        <v>14067.8</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>211.37</v>
+        <v>196.84</v>
       </c>
       <c r="Q125" t="n">
-        <v>4.93</v>
+        <v>4.9</v>
       </c>
       <c r="R125" t="n">
         <v>56.18</v>
@@ -11817,16 +11817,16 @@
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>47.32</v>
+        <v>44.02</v>
       </c>
       <c r="U125" t="n">
-        <v>768.31</v>
+        <v>482.34</v>
       </c>
       <c r="V125" t="n">
         <v>43.23</v>
       </c>
       <c r="W125" t="n">
-        <v>381.05</v>
+        <v>380.62</v>
       </c>
       <c r="X125" t="n">
         <v>1.38</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>409.78</v>
+        <v>369.43</v>
       </c>
       <c r="G126" t="n">
         <v>1019.67</v>
@@ -11870,10 +11870,10 @@
         <v>49.39</v>
       </c>
       <c r="K126" t="n">
-        <v>3015.74</v>
+        <v>2825.34</v>
       </c>
       <c r="L126" t="n">
-        <v>11679.79</v>
+        <v>10730.68</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
@@ -11900,7 +11900,7 @@
         <v>34.67</v>
       </c>
       <c r="U126" t="n">
-        <v>107.3</v>
+        <v>101.15</v>
       </c>
       <c r="V126" t="n">
         <v>21.32</v>
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>3080.97</v>
+        <v>874.77</v>
       </c>
       <c r="G128" t="n">
         <v>29694.45</v>
@@ -12030,25 +12030,25 @@
         <v>312</v>
       </c>
       <c r="K128" t="n">
-        <v>48743.65</v>
+        <v>14552.12</v>
       </c>
       <c r="L128" t="n">
-        <v>116314.81</v>
+        <v>26429.25</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>66125.89</v>
+        <v>63897.34</v>
       </c>
       <c r="O128" t="n">
         <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>1391.68</v>
+        <v>1361.13</v>
       </c>
       <c r="Q128" t="n">
-        <v>39.95</v>
+        <v>39.29</v>
       </c>
       <c r="R128" t="n">
         <v>385.07</v>
@@ -12057,16 +12057,16 @@
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>224.67</v>
+        <v>219.59</v>
       </c>
       <c r="U128" t="n">
-        <v>2934.88</v>
+        <v>889.37</v>
       </c>
       <c r="V128" t="n">
         <v>383.77</v>
       </c>
       <c r="W128" t="n">
-        <v>2103.83</v>
+        <v>2103.54</v>
       </c>
       <c r="X128" t="n">
         <v>8.69</v>
@@ -12095,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>44.15</v>
+        <v>32.1</v>
       </c>
       <c r="G129" t="n">
         <v>699.76</v>
@@ -12110,10 +12110,10 @@
         <v>13.05</v>
       </c>
       <c r="K129" t="n">
-        <v>465.66</v>
+        <v>409.9</v>
       </c>
       <c r="L129" t="n">
-        <v>961.18</v>
+        <v>718.94</v>
       </c>
       <c r="M129" t="n">
         <v>0</v>
@@ -12140,7 +12140,7 @@
         <v>3.03</v>
       </c>
       <c r="U129" t="n">
-        <v>13.59</v>
+        <v>12.11</v>
       </c>
       <c r="V129" t="n">
         <v>11.94</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1289.67</v>
+        <v>874.2</v>
       </c>
       <c r="G130" t="n">
         <v>6628.37</v>
@@ -12190,25 +12190,25 @@
         <v>139.68</v>
       </c>
       <c r="K130" t="n">
-        <v>10363.73</v>
+        <v>8875.01</v>
       </c>
       <c r="L130" t="n">
-        <v>21462.26</v>
+        <v>16848.96</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>29634.9</v>
+        <v>29524.85</v>
       </c>
       <c r="O130" t="n">
         <v>0</v>
       </c>
       <c r="P130" t="n">
-        <v>1221.25</v>
+        <v>1217.67</v>
       </c>
       <c r="Q130" t="n">
-        <v>43.16</v>
+        <v>42.95</v>
       </c>
       <c r="R130" t="n">
         <v>166.44</v>
@@ -12217,10 +12217,10 @@
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>81.31</v>
+        <v>81.04</v>
       </c>
       <c r="U130" t="n">
-        <v>330.55</v>
+        <v>287.33</v>
       </c>
       <c r="V130" t="n">
         <v>199.17</v>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>12.14</v>
+        <v>12.06</v>
       </c>
       <c r="G131" t="n">
         <v>4.89</v>
@@ -12270,10 +12270,10 @@
         <v>0.82</v>
       </c>
       <c r="K131" t="n">
-        <v>69.58</v>
+        <v>69.4</v>
       </c>
       <c r="L131" t="n">
-        <v>86.77</v>
+        <v>86.21</v>
       </c>
       <c r="M131" t="n">
         <v>0</v>
@@ -12335,7 +12335,7 @@
         <v>0.58</v>
       </c>
       <c r="F132" t="n">
-        <v>1851.38</v>
+        <v>725.59</v>
       </c>
       <c r="G132" t="n">
         <v>10836.89</v>
@@ -12350,25 +12350,25 @@
         <v>6.32</v>
       </c>
       <c r="K132" t="n">
-        <v>177.25</v>
+        <v>63.17</v>
       </c>
       <c r="L132" t="n">
-        <v>21604.13</v>
+        <v>5945.97</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>7877.88</v>
+        <v>7001.93</v>
       </c>
       <c r="O132" t="n">
         <v>0</v>
       </c>
       <c r="P132" t="n">
-        <v>372.78</v>
+        <v>360.69</v>
       </c>
       <c r="Q132" t="n">
-        <v>27.47</v>
+        <v>25.86</v>
       </c>
       <c r="R132" t="n">
         <v>5.08</v>
@@ -12377,16 +12377,16 @@
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>74.21</v>
+        <v>71.09</v>
       </c>
       <c r="U132" t="n">
-        <v>177.48</v>
+        <v>66.47</v>
       </c>
       <c r="V132" t="n">
         <v>10.85</v>
       </c>
       <c r="W132" t="n">
-        <v>1380.06</v>
+        <v>1379.94</v>
       </c>
       <c r="X132" t="n">
         <v>0</v>
@@ -12395,7 +12395,7 @@
         <v>5.22</v>
       </c>
       <c r="Z132" t="n">
-        <v>141.72</v>
+        <v>123.85</v>
       </c>
     </row>
     <row r="133">
@@ -12415,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>2164.17</v>
+        <v>151.19</v>
       </c>
       <c r="G133" t="n">
         <v>4263.23</v>
@@ -12430,22 +12430,22 @@
         <v>3.24</v>
       </c>
       <c r="K133" t="n">
-        <v>2203.6</v>
+        <v>502.93</v>
       </c>
       <c r="L133" t="n">
-        <v>61138.09</v>
+        <v>4302.09</v>
       </c>
       <c r="M133" t="n">
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>3409.38</v>
+        <v>3327.3</v>
       </c>
       <c r="O133" t="n">
         <v>0</v>
       </c>
       <c r="P133" t="n">
-        <v>190.37</v>
+        <v>183.41</v>
       </c>
       <c r="Q133" t="n">
         <v>0</v>
@@ -12457,16 +12457,16 @@
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>39.08</v>
+        <v>37.55</v>
       </c>
       <c r="U133" t="n">
-        <v>1396.65</v>
+        <v>259.25</v>
       </c>
       <c r="V133" t="n">
         <v>8.28</v>
       </c>
       <c r="W133" t="n">
-        <v>1347.05</v>
+        <v>1346.45</v>
       </c>
       <c r="X133" t="n">
         <v>0.3</v>
@@ -12495,7 +12495,7 @@
         <v>0.05</v>
       </c>
       <c r="F134" t="n">
-        <v>9.49</v>
+        <v>9.23</v>
       </c>
       <c r="G134" t="n">
         <v>109.29</v>
@@ -12510,10 +12510,10 @@
         <v>0.25</v>
       </c>
       <c r="K134" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="L134" t="n">
-        <v>100.98</v>
+        <v>98.23</v>
       </c>
       <c r="M134" t="n">
         <v>0</v>
@@ -12540,7 +12540,7 @@
         <v>0.36</v>
       </c>
       <c r="U134" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="V134" t="n">
         <v>0.6</v>
@@ -12655,7 +12655,7 @@
         <v>0.13</v>
       </c>
       <c r="F136" t="n">
-        <v>105.36</v>
+        <v>79.5</v>
       </c>
       <c r="G136" t="n">
         <v>310.89</v>
@@ -12670,10 +12670,10 @@
         <v>0.75</v>
       </c>
       <c r="K136" t="n">
-        <v>12.07</v>
+        <v>11.61</v>
       </c>
       <c r="L136" t="n">
-        <v>2434.24</v>
+        <v>1572.36</v>
       </c>
       <c r="M136" t="n">
         <v>0</v>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="P136" t="n">
-        <v>48.91</v>
+        <v>48.88</v>
       </c>
       <c r="Q136" t="n">
         <v>3.06</v>
@@ -12697,10 +12697,10 @@
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>9.7</v>
+        <v>9.69</v>
       </c>
       <c r="U136" t="n">
-        <v>24.19</v>
+        <v>12.19</v>
       </c>
       <c r="V136" t="n">
         <v>0.34</v>
@@ -12735,7 +12735,7 @@
         <v>0.11</v>
       </c>
       <c r="F137" t="n">
-        <v>82.03</v>
+        <v>52.28</v>
       </c>
       <c r="G137" t="n">
         <v>2416.57</v>
@@ -12750,25 +12750,25 @@
         <v>0.38</v>
       </c>
       <c r="K137" t="n">
-        <v>8.68</v>
+        <v>6.5</v>
       </c>
       <c r="L137" t="n">
-        <v>2903.4</v>
+        <v>1012.74</v>
       </c>
       <c r="M137" t="n">
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>10386.81</v>
+        <v>7108.38</v>
       </c>
       <c r="O137" t="n">
         <v>0</v>
       </c>
       <c r="P137" t="n">
-        <v>38.19</v>
+        <v>35.4</v>
       </c>
       <c r="Q137" t="n">
-        <v>9.65</v>
+        <v>7.27</v>
       </c>
       <c r="R137" t="n">
         <v>0.13</v>
@@ -12777,16 +12777,16 @@
         <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>7.22</v>
+        <v>6.58</v>
       </c>
       <c r="U137" t="n">
-        <v>108.58</v>
+        <v>94.26</v>
       </c>
       <c r="V137" t="n">
         <v>0.05</v>
       </c>
       <c r="W137" t="n">
-        <v>274.18</v>
+        <v>272</v>
       </c>
       <c r="X137" t="n">
         <v>0</v>
@@ -12795,7 +12795,7 @@
         <v>0.1</v>
       </c>
       <c r="Z137" t="n">
-        <v>356.59</v>
+        <v>243.31</v>
       </c>
     </row>
     <row r="138">
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>987.09</v>
+        <v>369.76</v>
       </c>
       <c r="G138" t="n">
         <v>7975.69</v>
@@ -12830,22 +12830,22 @@
         <v>8.4</v>
       </c>
       <c r="K138" t="n">
-        <v>195.65</v>
+        <v>91.41</v>
       </c>
       <c r="L138" t="n">
-        <v>16041.46</v>
+        <v>6215.26</v>
       </c>
       <c r="M138" t="n">
         <v>0</v>
       </c>
       <c r="N138" t="n">
-        <v>5872.6</v>
+        <v>5586.14</v>
       </c>
       <c r="O138" t="n">
         <v>0</v>
       </c>
       <c r="P138" t="n">
-        <v>253.32</v>
+        <v>239.43</v>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
@@ -12857,16 +12857,16 @@
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>37.18</v>
+        <v>34.69</v>
       </c>
       <c r="U138" t="n">
-        <v>119.5</v>
+        <v>60.96</v>
       </c>
       <c r="V138" t="n">
         <v>19.33</v>
       </c>
       <c r="W138" t="n">
-        <v>1140.13</v>
+        <v>1137.18</v>
       </c>
       <c r="X138" t="n">
         <v>0</v>
@@ -12875,7 +12875,7 @@
         <v>4.09</v>
       </c>
       <c r="Z138" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="139">
@@ -12910,22 +12910,22 @@
         <v>1.13</v>
       </c>
       <c r="K139" t="n">
-        <v>3.1</v>
+        <v>3.19</v>
       </c>
       <c r="L139" t="n">
-        <v>1685.75</v>
+        <v>1698.45</v>
       </c>
       <c r="M139" t="n">
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>426.83</v>
+        <v>426.68</v>
       </c>
       <c r="O139" t="n">
         <v>0</v>
       </c>
       <c r="P139" t="n">
-        <v>39.88</v>
+        <v>39.87</v>
       </c>
       <c r="Q139" t="n">
         <v>0.5</v>
@@ -12940,7 +12940,7 @@
         <v>3.47</v>
       </c>
       <c r="U139" t="n">
-        <v>3.07</v>
+        <v>3.21</v>
       </c>
       <c r="V139" t="n">
         <v>19.79</v>
@@ -13073,7 +13073,7 @@
         <v>2.7</v>
       </c>
       <c r="L141" t="n">
-        <v>930.3</v>
+        <v>930.12</v>
       </c>
       <c r="M141" t="n">
         <v>0</v>
@@ -13375,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>51.1</v>
+        <v>36.94</v>
       </c>
       <c r="G145" t="n">
         <v>7186.6</v>
@@ -13390,25 +13390,25 @@
         <v>41.91</v>
       </c>
       <c r="K145" t="n">
-        <v>188.93</v>
+        <v>181.64</v>
       </c>
       <c r="L145" t="n">
-        <v>5411.12</v>
+        <v>5174.72</v>
       </c>
       <c r="M145" t="n">
         <v>0</v>
       </c>
       <c r="N145" t="n">
-        <v>5262.82</v>
+        <v>4354.14</v>
       </c>
       <c r="O145" t="n">
-        <v>68.16</v>
+        <v>46.39</v>
       </c>
       <c r="P145" t="n">
         <v>0.79</v>
       </c>
       <c r="Q145" t="n">
-        <v>3.57</v>
+        <v>3.39</v>
       </c>
       <c r="R145" t="n">
         <v>50.74</v>
@@ -13417,16 +13417,16 @@
         <v>0</v>
       </c>
       <c r="T145" t="n">
-        <v>21.76</v>
+        <v>18.12</v>
       </c>
       <c r="U145" t="n">
-        <v>92.27</v>
+        <v>90.88</v>
       </c>
       <c r="V145" t="n">
         <v>79.45</v>
       </c>
       <c r="W145" t="n">
-        <v>1185.08</v>
+        <v>1174.55</v>
       </c>
       <c r="X145" t="n">
         <v>2.46</v>
@@ -13473,7 +13473,7 @@
         <v>2.4</v>
       </c>
       <c r="L146" t="n">
-        <v>1310.98</v>
+        <v>1309.92</v>
       </c>
       <c r="M146" t="n">
         <v>0</v>
@@ -13633,7 +13633,7 @@
         <v>24.08</v>
       </c>
       <c r="L148" t="n">
-        <v>1723.52</v>
+        <v>1723.11</v>
       </c>
       <c r="M148" t="n">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>107.39</v>
+        <v>103.44</v>
       </c>
       <c r="G150" t="n">
         <v>45.35</v>
@@ -13790,10 +13790,10 @@
         <v>1.35</v>
       </c>
       <c r="K150" t="n">
-        <v>14.28</v>
+        <v>14.21</v>
       </c>
       <c r="L150" t="n">
-        <v>2554.61</v>
+        <v>2512.86</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
@@ -13805,10 +13805,10 @@
         <v>0</v>
       </c>
       <c r="P150" t="n">
-        <v>67.46</v>
+        <v>67.45</v>
       </c>
       <c r="Q150" t="n">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="R150" t="n">
         <v>0.88</v>
@@ -13820,7 +13820,7 @@
         <v>9.03</v>
       </c>
       <c r="U150" t="n">
-        <v>14.08</v>
+        <v>13.91</v>
       </c>
       <c r="V150" t="n">
         <v>0.14</v>
@@ -14033,7 +14033,7 @@
         <v>16.82</v>
       </c>
       <c r="L153" t="n">
-        <v>1821.38</v>
+        <v>1821.34</v>
       </c>
       <c r="M153" t="n">
         <v>0</v>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>16.15</v>
+        <v>16.06</v>
       </c>
       <c r="G155" t="n">
         <v>57.66</v>
@@ -14190,10 +14190,10 @@
         <v>5.09</v>
       </c>
       <c r="K155" t="n">
-        <v>63.94</v>
+        <v>63.7</v>
       </c>
       <c r="L155" t="n">
-        <v>1330.45</v>
+        <v>1323.61</v>
       </c>
       <c r="M155" t="n">
         <v>0</v>
@@ -14220,7 +14220,7 @@
         <v>3.16</v>
       </c>
       <c r="U155" t="n">
-        <v>8.85</v>
+        <v>8.81</v>
       </c>
       <c r="V155" t="n">
         <v>0.97</v>
@@ -16095,7 +16095,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="G179" t="n">
         <v>34.09</v>
@@ -16110,10 +16110,10 @@
         <v>3.32</v>
       </c>
       <c r="K179" t="n">
-        <v>8.72</v>
+        <v>8.71</v>
       </c>
       <c r="L179" t="n">
-        <v>749.03</v>
+        <v>740.76</v>
       </c>
       <c r="M179" t="n">
         <v>0</v>
@@ -16140,7 +16140,7 @@
         <v>42.54</v>
       </c>
       <c r="U179" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="V179" t="n">
         <v>3.01</v>
@@ -16193,7 +16193,7 @@
         <v>8.72</v>
       </c>
       <c r="L180" t="n">
-        <v>227.93</v>
+        <v>227.87</v>
       </c>
       <c r="M180" t="n">
         <v>0</v>
@@ -16273,7 +16273,7 @@
         <v>0.41</v>
       </c>
       <c r="L181" t="n">
-        <v>235.38</v>
+        <v>234.72</v>
       </c>
       <c r="M181" t="n">
         <v>0</v>
@@ -16335,7 +16335,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G182" t="n">
         <v>55.93</v>
@@ -16350,10 +16350,10 @@
         <v>8.42</v>
       </c>
       <c r="K182" t="n">
-        <v>6.49</v>
+        <v>6.46</v>
       </c>
       <c r="L182" t="n">
-        <v>1888.77</v>
+        <v>1861.37</v>
       </c>
       <c r="M182" t="n">
         <v>0</v>
@@ -16380,7 +16380,7 @@
         <v>140.08</v>
       </c>
       <c r="U182" t="n">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
       <c r="V182" t="n">
         <v>11.99</v>
@@ -16433,7 +16433,7 @@
         <v>1.83</v>
       </c>
       <c r="L183" t="n">
-        <v>17.61</v>
+        <v>17.38</v>
       </c>
       <c r="M183" t="n">
         <v>0</v>
@@ -16460,7 +16460,7 @@
         <v>0.1</v>
       </c>
       <c r="U183" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="V183" t="n">
         <v>0.04</v>
@@ -16513,7 +16513,7 @@
         <v>4.46</v>
       </c>
       <c r="L184" t="n">
-        <v>206.52</v>
+        <v>206.51</v>
       </c>
       <c r="M184" t="n">
         <v>0</v>
@@ -16833,7 +16833,7 @@
         <v>468.82</v>
       </c>
       <c r="L188" t="n">
-        <v>1157.67</v>
+        <v>1157.66</v>
       </c>
       <c r="M188" t="n">
         <v>0</v>
@@ -17055,7 +17055,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>193.22</v>
+        <v>192.98</v>
       </c>
       <c r="G191" t="n">
         <v>21.23</v>
@@ -17070,10 +17070,10 @@
         <v>8.25</v>
       </c>
       <c r="K191" t="n">
-        <v>969.56</v>
+        <v>968.8</v>
       </c>
       <c r="L191" t="n">
-        <v>2626.98</v>
+        <v>2621.77</v>
       </c>
       <c r="M191" t="n">
         <v>0</v>
@@ -17100,7 +17100,7 @@
         <v>7.52</v>
       </c>
       <c r="U191" t="n">
-        <v>23.13</v>
+        <v>23.11</v>
       </c>
       <c r="V191" t="n">
         <v>0.37</v>
@@ -17135,10 +17135,10 @@
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>26.79</v>
+        <v>26.49</v>
       </c>
       <c r="G192" t="n">
-        <v>39.29</v>
+        <v>40.73</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -17147,52 +17147,52 @@
         <v>0.06</v>
       </c>
       <c r="J192" t="n">
-        <v>4.73</v>
+        <v>4.74</v>
       </c>
       <c r="K192" t="n">
-        <v>258.98</v>
+        <v>263.41</v>
       </c>
       <c r="L192" t="n">
-        <v>855.52</v>
+        <v>872.61</v>
       </c>
       <c r="M192" t="n">
         <v>0</v>
       </c>
       <c r="N192" t="n">
-        <v>745.45</v>
+        <v>773.7</v>
       </c>
       <c r="O192" t="n">
         <v>0</v>
       </c>
       <c r="P192" t="n">
-        <v>24.8</v>
+        <v>25.69</v>
       </c>
       <c r="Q192" t="n">
         <v>0.71</v>
       </c>
       <c r="R192" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="S192" t="n">
         <v>0</v>
       </c>
       <c r="T192" t="n">
-        <v>4.25</v>
+        <v>4.41</v>
       </c>
       <c r="U192" t="n">
-        <v>21.07</v>
+        <v>21.93</v>
       </c>
       <c r="V192" t="n">
         <v>0.34</v>
       </c>
       <c r="W192" t="n">
-        <v>98.9</v>
+        <v>99.96</v>
       </c>
       <c r="X192" t="n">
         <v>0.01</v>
       </c>
       <c r="Y192" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="Z192" t="n">
         <v>0</v>
@@ -17532,10 +17532,10 @@
         <v>8.19</v>
       </c>
       <c r="E197" t="n">
-        <v>35.36</v>
+        <v>35.34</v>
       </c>
       <c r="F197" t="n">
-        <v>28109.23</v>
+        <v>24440.45</v>
       </c>
       <c r="G197" t="n">
         <v>213.42</v>
@@ -17550,25 +17550,25 @@
         <v>0.69</v>
       </c>
       <c r="K197" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L197" t="n">
-        <v>1613.63</v>
+        <v>1568.32</v>
       </c>
       <c r="M197" t="n">
         <v>0</v>
       </c>
       <c r="N197" t="n">
-        <v>3126.47</v>
+        <v>3124.96</v>
       </c>
       <c r="O197" t="n">
         <v>0</v>
       </c>
       <c r="P197" t="n">
-        <v>41.11</v>
+        <v>41.1</v>
       </c>
       <c r="Q197" t="n">
-        <v>3109.36</v>
+        <v>3107.93</v>
       </c>
       <c r="R197" t="n">
         <v>0.74</v>
@@ -17577,10 +17577,10 @@
         <v>0</v>
       </c>
       <c r="T197" t="n">
-        <v>66.98</v>
+        <v>66.94</v>
       </c>
       <c r="U197" t="n">
-        <v>34.06</v>
+        <v>32.27</v>
       </c>
       <c r="V197" t="n">
         <v>0.24</v>
@@ -17595,7 +17595,7 @@
         <v>10.53</v>
       </c>
       <c r="Z197" t="n">
-        <v>305.9</v>
+        <v>305.77</v>
       </c>
     </row>
     <row r="198">
@@ -17695,7 +17695,7 @@
         <v>4.13</v>
       </c>
       <c r="F199" t="n">
-        <v>7378.86</v>
+        <v>7130.09</v>
       </c>
       <c r="G199" t="n">
         <v>55.17</v>
@@ -17935,7 +17935,7 @@
         <v>34.63</v>
       </c>
       <c r="F202" t="n">
-        <v>25372.82</v>
+        <v>22029.74</v>
       </c>
       <c r="G202" t="n">
         <v>38.32</v>
@@ -17953,7 +17953,7 @@
         <v>0</v>
       </c>
       <c r="L202" t="n">
-        <v>432.57</v>
+        <v>432.29</v>
       </c>
       <c r="M202" t="n">
         <v>0</v>
@@ -17980,7 +17980,7 @@
         <v>49.66</v>
       </c>
       <c r="U202" t="n">
-        <v>5.36</v>
+        <v>5.35</v>
       </c>
       <c r="V202" t="n">
         <v>0.06</v>
@@ -18175,7 +18175,7 @@
         <v>4.08</v>
       </c>
       <c r="F205" t="n">
-        <v>2167.58</v>
+        <v>2166.91</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -18335,7 +18335,7 @@
         <v>8.73</v>
       </c>
       <c r="F207" t="n">
-        <v>10609.7</v>
+        <v>9901.86</v>
       </c>
       <c r="G207" t="n">
         <v>197.49</v>
@@ -18353,7 +18353,7 @@
         <v>0</v>
       </c>
       <c r="L207" t="n">
-        <v>281.36</v>
+        <v>280.81</v>
       </c>
       <c r="M207" t="n">
         <v>0</v>
@@ -18380,7 +18380,7 @@
         <v>19.41</v>
       </c>
       <c r="U207" t="n">
-        <v>63.28</v>
+        <v>62.91</v>
       </c>
       <c r="V207" t="n">
         <v>2.32</v>
@@ -18510,16 +18510,16 @@
         <v>0.28</v>
       </c>
       <c r="K209" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
       <c r="L209" t="n">
-        <v>251.26</v>
+        <v>251.46</v>
       </c>
       <c r="M209" t="n">
         <v>0</v>
       </c>
       <c r="N209" t="n">
-        <v>236.3</v>
+        <v>236.4</v>
       </c>
       <c r="O209" t="n">
         <v>0</v>
@@ -18546,7 +18546,7 @@
         <v>0.01</v>
       </c>
       <c r="W209" t="n">
-        <v>18.29</v>
+        <v>18.3</v>
       </c>
       <c r="X209" t="n">
         <v>0</v>
@@ -18913,7 +18913,7 @@
         <v>53.71</v>
       </c>
       <c r="L214" t="n">
-        <v>1721.14</v>
+        <v>1721.13</v>
       </c>
       <c r="M214" t="n">
         <v>0</v>
@@ -18975,7 +18975,7 @@
         <v>0.03</v>
       </c>
       <c r="F215" t="n">
-        <v>136.9</v>
+        <v>136.83</v>
       </c>
       <c r="G215" t="n">
         <v>12.57</v>
@@ -18993,7 +18993,7 @@
         <v>11.07</v>
       </c>
       <c r="L215" t="n">
-        <v>1830.24</v>
+        <v>1826.25</v>
       </c>
       <c r="M215" t="n">
         <v>0</v>
@@ -19233,7 +19233,7 @@
         <v>85.58</v>
       </c>
       <c r="L218" t="n">
-        <v>3746.46</v>
+        <v>3746.44</v>
       </c>
       <c r="M218" t="n">
         <v>0</v>
@@ -19375,7 +19375,7 @@
         <v>0.01</v>
       </c>
       <c r="F220" t="n">
-        <v>690.7</v>
+        <v>609.14</v>
       </c>
       <c r="G220" t="n">
         <v>1116.31</v>
@@ -19390,16 +19390,16 @@
         <v>4.32</v>
       </c>
       <c r="K220" t="n">
-        <v>119.17</v>
+        <v>103.63</v>
       </c>
       <c r="L220" t="n">
-        <v>10497.47</v>
+        <v>8754.78</v>
       </c>
       <c r="M220" t="n">
         <v>0</v>
       </c>
       <c r="N220" t="n">
-        <v>4841.35</v>
+        <v>4841.29</v>
       </c>
       <c r="O220" t="n">
         <v>0</v>
@@ -19420,7 +19420,7 @@
         <v>24.92</v>
       </c>
       <c r="U220" t="n">
-        <v>35.99</v>
+        <v>28.79</v>
       </c>
       <c r="V220" t="n">
         <v>2.02</v>
@@ -19535,7 +19535,7 @@
         <v>1.52</v>
       </c>
       <c r="F222" t="n">
-        <v>493.6</v>
+        <v>493.59</v>
       </c>
       <c r="G222" t="n">
         <v>2.6</v>
@@ -19553,7 +19553,7 @@
         <v>25.59</v>
       </c>
       <c r="L222" t="n">
-        <v>1448.07</v>
+        <v>1448.05</v>
       </c>
       <c r="M222" t="n">
         <v>0</v>
@@ -19615,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>147.93</v>
+        <v>147.91</v>
       </c>
       <c r="G223" t="n">
         <v>8.63</v>
@@ -19633,7 +19633,7 @@
         <v>17.42</v>
       </c>
       <c r="L223" t="n">
-        <v>1834.72</v>
+        <v>1833.09</v>
       </c>
       <c r="M223" t="n">
         <v>0</v>
